--- a/output/ursus/sheets/ursus_long_term_monthly_average_noise_levels.xlsx
+++ b/output/ursus/sheets/ursus_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15392400" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.17741935483871</v>
+        <v>57.09039894225722</v>
       </c>
       <c r="C2" t="n">
-        <v>41.09999999999999</v>
+        <v>50.11240202222666</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.94285714285714</v>
+        <v>57.97087029449805</v>
       </c>
       <c r="C3" t="n">
-        <v>50.97142857142858</v>
+        <v>51.15814010846351</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.15483870967742</v>
+        <v>58.2236305403286</v>
       </c>
       <c r="C4" t="n">
-        <v>49.10322580645161</v>
+        <v>50.97816886937476</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49.68333333333333</v>
+        <v>56.15665546874023</v>
       </c>
       <c r="C5" t="n">
-        <v>44.75666666666667</v>
+        <v>50.09960568780076</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.86129032258064</v>
+        <v>58.87498713538012</v>
       </c>
       <c r="C6" t="n">
-        <v>52.37741935483871</v>
+        <v>52.54872417001287</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.16333333333333</v>
+        <v>59.19496247555762</v>
       </c>
       <c r="C7" t="n">
-        <v>52.19</v>
+        <v>52.47291620808302</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.03870967741936</v>
+        <v>59.05671543526779</v>
       </c>
       <c r="C8" t="n">
-        <v>52.30322580645161</v>
+        <v>52.43117741957059</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.09032258064516</v>
+        <v>59.10647671701686</v>
       </c>
       <c r="C9" t="n">
-        <v>52.35161290322581</v>
+        <v>52.53322817201662</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.44</v>
+        <v>59.45761121581515</v>
       </c>
       <c r="C10" t="n">
-        <v>52.29</v>
+        <v>52.46359543229734</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.35483870967742</v>
+        <v>59.37377663552007</v>
       </c>
       <c r="C11" t="n">
-        <v>52.07419354838709</v>
+        <v>52.2102618898521</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.58333333333334</v>
+        <v>58.93843658412819</v>
       </c>
       <c r="C12" t="n">
-        <v>47.98666666666666</v>
+        <v>51.63269736575433</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.2</v>
+        <v>58.3289864061892</v>
       </c>
       <c r="C13" t="n">
-        <v>51.13225806451613</v>
+        <v>51.71742336781178</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>57.81935483870968</v>
+        <v>57.86079350052484</v>
       </c>
       <c r="C14" t="n">
-        <v>50.61935483870968</v>
+        <v>50.89079143169123</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>58.48571428571428</v>
+        <v>58.63340196204948</v>
       </c>
       <c r="C15" t="n">
-        <v>51.05357142857143</v>
+        <v>51.18803054450017</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.29677419354839</v>
+        <v>56.07595533070114</v>
       </c>
       <c r="C16" t="n">
-        <v>38.38064516129032</v>
+        <v>49.42790117423642</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.78333333333333</v>
+        <v>36.36655253764435</v>
       </c>
       <c r="C17" t="n">
-        <v>8.796666666666665</v>
+        <v>40.74933657936594</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29.59354838709677</v>
+        <v>40.23006678655528</v>
       </c>
       <c r="C18" t="n">
-        <v>21.52903225806451</v>
+        <v>39.78607475621838</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.66333333333333</v>
+        <v>36.6302594914844</v>
       </c>
       <c r="C19" t="n">
-        <v>17.02666666666667</v>
+        <v>37.45420311549657</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58.9741935483871</v>
+        <v>59.01980913456697</v>
       </c>
       <c r="C20" t="n">
-        <v>50.98064516129033</v>
+        <v>51.23509114143626</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>58.90967741935484</v>
+        <v>58.92581733396944</v>
       </c>
       <c r="C21" t="n">
-        <v>50.94193548387097</v>
+        <v>51.13743287445287</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.46</v>
+        <v>59.48144186819418</v>
       </c>
       <c r="C22" t="n">
-        <v>51.51</v>
+        <v>51.67390058161055</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.22903225806451</v>
+        <v>58.57259477460231</v>
       </c>
       <c r="C23" t="n">
-        <v>32.77741935483871</v>
+        <v>51.3948346081019</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.21666666666667</v>
+        <v>59.23283306477835</v>
       </c>
       <c r="C24" t="n">
-        <v>52.10333333333333</v>
+        <v>52.24855970795993</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.26129032258064</v>
+        <v>58.33041258987243</v>
       </c>
       <c r="C25" t="n">
-        <v>50.57419354838709</v>
+        <v>50.85378834961861</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>57.81612903225806</v>
+        <v>57.91523259976565</v>
       </c>
       <c r="C26" t="n">
-        <v>50.83548387096774</v>
+        <v>50.98618470292682</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.59310344827586</v>
+        <v>56.84480542045755</v>
       </c>
       <c r="C27" t="n">
-        <v>46.56551724137931</v>
+        <v>50.65574715831329</v>
       </c>
     </row>
     <row r="28">
@@ -825,647 +825,621 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.09999999999999</v>
+        <v>56.16976375035843</v>
       </c>
       <c r="C28" t="n">
-        <v>23.48387096774194</v>
+        <v>49.87828197357874</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7.786666666666666</v>
+        <v>36.3</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.716129032258064</v>
+        <v>53.66878882936543</v>
       </c>
       <c r="C30" t="n">
-        <v>1.332258064516129</v>
+        <v>45.84017344612658</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.09666666666667</v>
+        <v>54.52145193306328</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.17165158483741</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53.18387096774194</v>
+        <v>54.60337920609257</v>
       </c>
       <c r="C32" t="n">
-        <v>43.28064516129032</v>
+        <v>47.22505690419932</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>54.47096774193548</v>
+        <v>54.05075417680132</v>
       </c>
       <c r="C33" t="n">
-        <v>46.38064516129032</v>
+        <v>47.31403916666818</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>54.55</v>
+        <v>52.24690867958025</v>
       </c>
       <c r="C34" t="n">
-        <v>46.73333333333333</v>
+        <v>46.45705186682263</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>53.89032258064516</v>
+        <v>53.19401632434726</v>
       </c>
       <c r="C35" t="n">
-        <v>45.44193548387097</v>
+        <v>46.81896676961109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51.91333333333333</v>
+        <v>51.56147494710957</v>
       </c>
       <c r="C36" t="n">
-        <v>40.96333333333334</v>
+        <v>45.52911737870326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.00322580645161</v>
+        <v>50.45020330212024</v>
       </c>
       <c r="C37" t="n">
-        <v>44.48064516129033</v>
+        <v>43.94676104413912</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51.31935483870968</v>
+        <v>51.43633648110794</v>
       </c>
       <c r="C38" t="n">
-        <v>44.57419354838709</v>
+        <v>43.96726232761345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.11428571428571</v>
+        <v>52.05507834172177</v>
       </c>
       <c r="C39" t="n">
-        <v>39.40357142857142</v>
+        <v>46.68372238283476</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.31612903225806</v>
+        <v>53.69038227843703</v>
       </c>
       <c r="C40" t="n">
-        <v>38.7741935483871</v>
+        <v>47.28723315864373</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>45.02</v>
+        <v>54.37080465440467</v>
       </c>
       <c r="C41" t="n">
-        <v>30.38666666666667</v>
+        <v>1.904349726385412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>48.42903225806452</v>
+        <v>56.14425271632557</v>
       </c>
       <c r="C42" t="n">
-        <v>39.11290322580645</v>
+        <v>49.58501645523465</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.14666666666667</v>
+        <v>56.94093095945803</v>
       </c>
       <c r="C43" t="n">
-        <v>1.673333333333333</v>
+        <v>50.47860577265611</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>56.09677419354838</v>
+        <v>57.04617168700489</v>
       </c>
       <c r="C44" t="n">
-        <v>49.29354838709677</v>
+        <v>50.87565209274359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.89677419354839</v>
+        <v>56.50914344886334</v>
       </c>
       <c r="C45" t="n">
-        <v>50.14193548387097</v>
+        <v>49.9482496255819</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.10333333333333</v>
+        <v>55.99347701023233</v>
       </c>
       <c r="C46" t="n">
-        <v>48.93666666666666</v>
+        <v>49.61964085614009</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>55.86451612903225</v>
+        <v>55.49410003779102</v>
       </c>
       <c r="C47" t="n">
-        <v>49.64838709677419</v>
+        <v>49.65276764900704</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2022-01</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>55.81</v>
+        <v>54.94316209226278</v>
       </c>
       <c r="C48" t="n">
-        <v>49.28</v>
+        <v>50.13651713524098</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2022-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>55.29677419354839</v>
+        <v>55.28665620208258</v>
       </c>
       <c r="C49" t="n">
-        <v>47.51935483870967</v>
+        <v>49.06920682546801</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>54.81612903225806</v>
+        <v>55.67437731679902</v>
       </c>
       <c r="C50" t="n">
-        <v>49.57419354838709</v>
+        <v>48.81711203090081</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>55.19642857142857</v>
+        <v>56.82097219057378</v>
       </c>
       <c r="C51" t="n">
-        <v>46.77142857142857</v>
+        <v>51.08190750797633</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>53.81935483870968</v>
+        <v>57.18189622421689</v>
       </c>
       <c r="C52" t="n">
-        <v>46.91935483870968</v>
+        <v>50.34879305663147</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>56.8</v>
+        <v>58.16966051796676</v>
       </c>
       <c r="C53" t="n">
-        <v>50.17333333333333</v>
+        <v>51.86546411567902</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>57.16774193548387</v>
+        <v>57.63414958999181</v>
       </c>
       <c r="C54" t="n">
-        <v>49.92903225806452</v>
+        <v>50.98100038136712</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>58.15</v>
+        <v>57.6913691738308</v>
       </c>
       <c r="C55" t="n">
-        <v>51.66333333333333</v>
+        <v>51.34459228438453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>57.44193548387097</v>
+        <v>58.49448000353949</v>
       </c>
       <c r="C56" t="n">
-        <v>50.85161290322581</v>
+        <v>51.6595834699845</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>57.67741935483871</v>
+        <v>56.91399535927239</v>
       </c>
       <c r="C57" t="n">
-        <v>51.23225806451613</v>
+        <v>49.60099902805239</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>58.48666666666666</v>
+        <v>57.63317775289267</v>
       </c>
       <c r="C58" t="n">
-        <v>51.37666666666667</v>
+        <v>50.869532474114</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>40.04193548387097</v>
+        <v>57.11693909571294</v>
       </c>
       <c r="C59" t="n">
-        <v>37.71290322580645</v>
+        <v>50.36392736119869</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>57.55333333333333</v>
+        <v>57.48817248910083</v>
       </c>
       <c r="C60" t="n">
-        <v>50.64333333333333</v>
+        <v>51.01328035171659</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>56.94516129032258</v>
+        <v>57.56549616593971</v>
       </c>
       <c r="C61" t="n">
-        <v>49.80967741935483</v>
+        <v>50.91340988026447</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>57.45161290322581</v>
+        <v>58.01304473077032</v>
       </c>
       <c r="C62" t="n">
-        <v>50.87741935483871</v>
+        <v>51.5357667161846</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>57.53214285714286</v>
+        <v>58.49905406251982</v>
       </c>
       <c r="C63" t="n">
-        <v>50.64642857142857</v>
+        <v>51.38301417920275</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>57.87096774193548</v>
+        <v>58.45509173093066</v>
       </c>
       <c r="C64" t="n">
-        <v>51.39032258064516</v>
+        <v>51.76252991730389</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>58.49</v>
+        <v>58.56016500167034</v>
       </c>
       <c r="C65" t="n">
-        <v>49.56333333333334</v>
+        <v>52.13899829777175</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>58.44516129032258</v>
+        <v>58.37466908555325</v>
       </c>
       <c r="C66" t="n">
-        <v>51.53548387096774</v>
+        <v>51.63274472665328</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>58.40666666666667</v>
+        <v>58.3759219121728</v>
       </c>
       <c r="C67" t="n">
-        <v>52</v>
+        <v>51.99268406229761</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>58.36774193548387</v>
+        <v>58.44249361344186</v>
       </c>
       <c r="C68" t="n">
-        <v>51.51290322580645</v>
+        <v>52.09784588854455</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>56.47741935483871</v>
+        <v>58.90590230574559</v>
       </c>
       <c r="C69" t="n">
-        <v>51.93870967741935</v>
+        <v>52.008040825487</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>49.99</v>
+        <v>58.56540459811247</v>
       </c>
       <c r="C70" t="n">
-        <v>47.05</v>
+        <v>51.93277444392983</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>58.88709677419355</v>
+        <v>57.97372638337364</v>
       </c>
       <c r="C71" t="n">
-        <v>51.79677419354839</v>
+        <v>51.17302444821024</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>58.54</v>
+        <v>57.54034734873721</v>
       </c>
       <c r="C72" t="n">
-        <v>51.65</v>
+        <v>50.86104369024969</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>57.90967741935484</v>
+        <v>58.42629833144127</v>
       </c>
       <c r="C73" t="n">
-        <v>50.74193548387097</v>
+        <v>51.57854489155515</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>57.49354838709677</v>
+        <v>58.50816489683289</v>
       </c>
       <c r="C74" t="n">
-        <v>50.50645161290323</v>
+        <v>52.09165384981613</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>44.23793103448276</v>
+        <v>59.08136856850562</v>
       </c>
       <c r="C75" t="n">
-        <v>37.04137931034483</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2024-03</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>58.40967741935484</v>
-      </c>
-      <c r="C76" t="n">
-        <v>50.21290322580645</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2024-04</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>59.03666666666666</v>
-      </c>
-      <c r="C77" t="n">
-        <v>50.08333333333334</v>
+        <v>51.89638569684313</v>
       </c>
     </row>
   </sheetData>
